--- a/source/gapminder_summary_report.xlsx
+++ b/source/gapminder_summary_report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t xml:space="preserve">Gapminder Data by Continent</t>
   </si>
@@ -27,7 +27,7 @@
     <t xml:space="preserve">GDP Per Capita</t>
   </si>
   <si>
-    <t xml:space="preserve">Population</t>
+    <t xml:space="preserve">Population (Millions)</t>
   </si>
   <si>
     <t xml:space="preserve">Africa</t>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 5 most populous countries for each continent are shown.</t>
   </si>
   <si>
     <t xml:space="preserve">All Gapminder Countries</t>
@@ -493,16 +496,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
-    <numFmt numFmtId="50000" formatCode="0.0"/>
-    <numFmt numFmtId="50001" formatCode="0.0"/>
-    <numFmt numFmtId="50002" formatCode="0.0"/>
-    <numFmt numFmtId="50003" formatCode="0.0"/>
-    <numFmt numFmtId="50004" formatCode="0.0"/>
-    <numFmt numFmtId="50005" formatCode="0.0"/>
-    <numFmt numFmtId="50006" formatCode="0.0"/>
-    <numFmt numFmtId="50007" formatCode="0.0"/>
-    <numFmt numFmtId="50008" formatCode="0.0"/>
+  <numFmts count="27">
+    <numFmt numFmtId="50000" formatCode="0"/>
+    <numFmt numFmtId="50001" formatCode="0"/>
+    <numFmt numFmtId="50002" formatCode="0"/>
+    <numFmt numFmtId="50003" formatCode="$#,##0"/>
+    <numFmt numFmtId="50004" formatCode="$#,##0"/>
+    <numFmt numFmtId="50005" formatCode="$#,##0"/>
+    <numFmt numFmtId="50006" formatCode="#,##0"/>
+    <numFmt numFmtId="50007" formatCode="#,##0"/>
+    <numFmt numFmtId="50008" formatCode="#,##0"/>
+    <numFmt numFmtId="50009" formatCode="0"/>
+    <numFmt numFmtId="50010" formatCode="$#,##0"/>
+    <numFmt numFmtId="50011" formatCode="#,##0"/>
+    <numFmt numFmtId="50012" formatCode="0"/>
+    <numFmt numFmtId="50013" formatCode="$#,##0"/>
+    <numFmt numFmtId="50014" formatCode="#,##0"/>
+    <numFmt numFmtId="50015" formatCode="0"/>
+    <numFmt numFmtId="50016" formatCode="0"/>
+    <numFmt numFmtId="50017" formatCode="0"/>
+    <numFmt numFmtId="50018" formatCode="#,##0"/>
+    <numFmt numFmtId="50019" formatCode="#,##0"/>
+    <numFmt numFmtId="50020" formatCode="#,##0"/>
+    <numFmt numFmtId="50021" formatCode="$#,##0"/>
+    <numFmt numFmtId="50022" formatCode="$#,##0"/>
+    <numFmt numFmtId="50023" formatCode="$#,##0"/>
+    <numFmt numFmtId="50024" formatCode="0"/>
+    <numFmt numFmtId="50025" formatCode="#,##0"/>
+    <numFmt numFmtId="50026" formatCode="$#,##0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -533,12 +554,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -620,27 +641,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="50000" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="50001" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="50002" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="50003" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50003" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="50004" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50004" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50005" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50006" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="50007" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50008" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50009" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="50010" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="50011" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="50012" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="50013" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="50014" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -653,15 +684,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="50005" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="50015" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="50006" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="50007" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50016" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50017" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50018" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="50019" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50020" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50021" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="50022" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="50023" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="50008" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50024" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="50025" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="50026" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -958,450 +1005,456 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="35.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="18.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="15.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="15.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="20.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4">
-      <c r="B4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9" t="n">
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="n">
         <v>54.564410575582</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="13" t="n">
         <v>2560.92957029027</v>
       </c>
-      <c r="E4" s="8" t="n">
-        <v>929539692</v>
-      </c>
-      <c r="F4" s="16"/>
+      <c r="E4" s="14" t="n">
+        <v>929.539692</v>
+      </c>
+      <c r="F4" s="22"/>
     </row>
     <row r="5">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="4" t="n">
         <v>46.859</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>2013.977305</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>135031164</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="E5" s="10" t="n">
+        <v>135.031164</v>
+      </c>
+      <c r="F5" s="22"/>
     </row>
     <row r="6">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="4" t="n">
         <v>71.338</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>5581.180998</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>80264543</v>
-      </c>
-      <c r="F6" s="16"/>
+      <c r="E6" s="10" t="n">
+        <v>80.264543</v>
+      </c>
+      <c r="F6" s="22"/>
     </row>
     <row r="7">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="4" t="n">
         <v>52.947</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>690.8055759</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>76511887</v>
-      </c>
-      <c r="F7" s="16"/>
+      <c r="E7" s="10" t="n">
+        <v>76.511887</v>
+      </c>
+      <c r="F7" s="22"/>
     </row>
     <row r="8">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="4" t="n">
         <v>46.462</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>277.5518587</v>
       </c>
-      <c r="E8" s="3" t="n">
-        <v>64606759</v>
-      </c>
-      <c r="F8" s="16"/>
+      <c r="E8" s="10" t="n">
+        <v>64.606759</v>
+      </c>
+      <c r="F8" s="22"/>
     </row>
     <row r="9">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="4" t="n">
         <v>49.339</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>9269.657808</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <v>43997828</v>
-      </c>
-      <c r="F9" s="16"/>
+      <c r="E9" s="10" t="n">
+        <v>43.997828</v>
+      </c>
+      <c r="F9" s="22"/>
     </row>
     <row r="10">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="12" t="n">
         <v>75.3566822274303</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="13" t="n">
         <v>21602.7457519543</v>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>898871184</v>
-      </c>
-      <c r="F10" s="16"/>
+      <c r="E10" s="14" t="n">
+        <v>898.871184</v>
+      </c>
+      <c r="F10" s="22"/>
     </row>
     <row r="11">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="4" t="n">
         <v>78.242</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="7" t="n">
         <v>42951.65309</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>301139947</v>
-      </c>
-      <c r="F11" s="16"/>
+      <c r="E11" s="10" t="n">
+        <v>301.139947</v>
+      </c>
+      <c r="F11" s="22"/>
     </row>
     <row r="12">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="4" t="n">
         <v>72.39</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="7" t="n">
         <v>9065.800825</v>
       </c>
-      <c r="E12" s="3" t="n">
-        <v>190010647</v>
-      </c>
-      <c r="F12" s="16"/>
+      <c r="E12" s="10" t="n">
+        <v>190.010647</v>
+      </c>
+      <c r="F12" s="22"/>
     </row>
     <row r="13">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="4" t="n">
         <v>76.195</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="7" t="n">
         <v>11977.57496</v>
       </c>
-      <c r="E13" s="3" t="n">
-        <v>108700891</v>
-      </c>
-      <c r="F13" s="16"/>
+      <c r="E13" s="10" t="n">
+        <v>108.700891</v>
+      </c>
+      <c r="F13" s="22"/>
     </row>
     <row r="14">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="4" t="n">
         <v>72.889</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>7006.580419</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>44227550</v>
-      </c>
-      <c r="F14" s="16"/>
+      <c r="E14" s="10" t="n">
+        <v>44.22755</v>
+      </c>
+      <c r="F14" s="22"/>
     </row>
     <row r="15">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="4" t="n">
         <v>75.32</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>12779.37964</v>
       </c>
-      <c r="E15" s="3" t="n">
-        <v>40301927</v>
-      </c>
-      <c r="F15" s="16"/>
+      <c r="E15" s="10" t="n">
+        <v>40.301927</v>
+      </c>
+      <c r="F15" s="22"/>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="12" t="n">
         <v>69.4438630420502</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="13" t="n">
         <v>5432.37166487716</v>
       </c>
-      <c r="E16" s="8" t="n">
-        <v>3811953827</v>
-      </c>
-      <c r="F16" s="16"/>
+      <c r="E16" s="14" t="n">
+        <v>3811.953827</v>
+      </c>
+      <c r="F16" s="22"/>
     </row>
     <row r="17">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="4" t="n">
         <v>72.961</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>4959.114854</v>
       </c>
-      <c r="E17" s="3" t="n">
-        <v>1318683096</v>
-      </c>
-      <c r="F17" s="16"/>
+      <c r="E17" s="10" t="n">
+        <v>1318.683096</v>
+      </c>
+      <c r="F17" s="22"/>
     </row>
     <row r="18">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="4" t="n">
         <v>64.698</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="7" t="n">
         <v>2452.210407</v>
       </c>
-      <c r="E18" s="3" t="n">
-        <v>1110396331</v>
-      </c>
-      <c r="F18" s="16"/>
+      <c r="E18" s="10" t="n">
+        <v>1110.396331</v>
+      </c>
+      <c r="F18" s="22"/>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="4" t="n">
         <v>70.65</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="7" t="n">
         <v>3540.651564</v>
       </c>
-      <c r="E19" s="3" t="n">
-        <v>223547000</v>
-      </c>
-      <c r="F19" s="16"/>
+      <c r="E19" s="10" t="n">
+        <v>223.547</v>
+      </c>
+      <c r="F19" s="22"/>
     </row>
     <row r="20">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="4" t="n">
         <v>65.483</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>2605.94758</v>
       </c>
-      <c r="E20" s="3" t="n">
-        <v>169270617</v>
-      </c>
-      <c r="F20" s="16"/>
+      <c r="E20" s="10" t="n">
+        <v>169.270617</v>
+      </c>
+      <c r="F20" s="22"/>
     </row>
     <row r="21">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="4" t="n">
         <v>64.062</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="7" t="n">
         <v>1391.253792</v>
       </c>
-      <c r="E21" s="3" t="n">
-        <v>150448339</v>
-      </c>
-      <c r="F21" s="16"/>
+      <c r="E21" s="10" t="n">
+        <v>150.448339</v>
+      </c>
+      <c r="F21" s="22"/>
     </row>
     <row r="22">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="12" t="n">
         <v>77.890570810699</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="13" t="n">
         <v>25244.0478852575</v>
       </c>
-      <c r="E22" s="8" t="n">
-        <v>586098529</v>
-      </c>
-      <c r="F22" s="16"/>
+      <c r="E22" s="14" t="n">
+        <v>586.098529</v>
+      </c>
+      <c r="F22" s="22"/>
     </row>
     <row r="23">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="4" t="n">
         <v>79.406</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="7" t="n">
         <v>32170.37442</v>
       </c>
-      <c r="E23" s="3" t="n">
-        <v>82400996</v>
-      </c>
-      <c r="F23" s="16"/>
+      <c r="E23" s="10" t="n">
+        <v>82.400996</v>
+      </c>
+      <c r="F23" s="22"/>
     </row>
     <row r="24">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="4" t="n">
         <v>71.777</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="7" t="n">
         <v>8458.276384</v>
       </c>
-      <c r="E24" s="3" t="n">
-        <v>71158647</v>
-      </c>
-      <c r="F24" s="16"/>
+      <c r="E24" s="10" t="n">
+        <v>71.158647</v>
+      </c>
+      <c r="F24" s="22"/>
     </row>
     <row r="25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="4" t="n">
         <v>80.657</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="7" t="n">
         <v>30470.0167</v>
       </c>
-      <c r="E25" s="3" t="n">
-        <v>61083916</v>
-      </c>
-      <c r="F25" s="16"/>
+      <c r="E25" s="10" t="n">
+        <v>61.083916</v>
+      </c>
+      <c r="F25" s="22"/>
     </row>
     <row r="26">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="4" t="n">
         <v>79.425</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="7" t="n">
         <v>33203.26128</v>
       </c>
-      <c r="E26" s="3" t="n">
-        <v>60776238</v>
-      </c>
-      <c r="F26" s="16"/>
+      <c r="E26" s="10" t="n">
+        <v>60.776238</v>
+      </c>
+      <c r="F26" s="22"/>
     </row>
     <row r="27">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="4" t="n">
         <v>80.546</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="7" t="n">
         <v>28569.7197</v>
       </c>
-      <c r="E27" s="3" t="n">
-        <v>58147733</v>
-      </c>
-      <c r="F27" s="16"/>
+      <c r="E27" s="10" t="n">
+        <v>58.147733</v>
+      </c>
+      <c r="F27" s="22"/>
     </row>
     <row r="28">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="12" t="n">
         <v>81.0621540097011</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="13" t="n">
         <v>32884.5552710685</v>
       </c>
-      <c r="E28" s="8" t="n">
-        <v>24549947</v>
-      </c>
-      <c r="F28" s="16"/>
+      <c r="E28" s="14" t="n">
+        <v>24.549947</v>
+      </c>
+      <c r="F28" s="22"/>
     </row>
     <row r="29">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="4" t="n">
         <v>81.235</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="7" t="n">
         <v>34435.36744</v>
       </c>
-      <c r="E29" s="3" t="n">
-        <v>20434176</v>
-      </c>
-      <c r="F29" s="16"/>
+      <c r="E29" s="10" t="n">
+        <v>20.434176</v>
+      </c>
+      <c r="F29" s="22"/>
     </row>
     <row r="30">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="4" t="n">
         <v>80.204</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="7" t="n">
         <v>25185.00911</v>
       </c>
-      <c r="E30" s="3" t="n">
-        <v>4115771</v>
-      </c>
-      <c r="F30" s="16"/>
+      <c r="E30" s="10" t="n">
+        <v>4.115771</v>
+      </c>
+      <c r="F30" s="22"/>
     </row>
     <row r="31">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1420,7 +1473,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="35.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="22.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="15.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="15.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
@@ -1428,2599 +1481,2601 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="20"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3">
-      <c r="B3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="F3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="22"/>
     </row>
     <row r="4">
-      <c r="B4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="19" t="n">
+      <c r="D4" s="25" t="n">
         <v>43.828</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="28" t="n">
         <v>31889923</v>
       </c>
-      <c r="F4" s="19" t="n">
+      <c r="F4" s="31" t="n">
         <v>974.5803384</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5">
-      <c r="B5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="25" t="n">
         <v>76.423</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="28" t="n">
         <v>3600523</v>
       </c>
-      <c r="F5" s="19" t="n">
+      <c r="F5" s="31" t="n">
         <v>5937.029526</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6">
-      <c r="B6" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="19" t="n">
+      <c r="B6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25" t="n">
         <v>72.301</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="28" t="n">
         <v>33333216</v>
       </c>
-      <c r="F6" s="19" t="n">
+      <c r="F6" s="31" t="n">
         <v>6223.367465</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7">
-      <c r="B7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="19" t="n">
+      <c r="B7" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25" t="n">
         <v>42.731</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="28" t="n">
         <v>12420476</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="31" t="n">
         <v>4797.231267</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="25" t="n">
         <v>75.32</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="28" t="n">
         <v>40301927</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="F8" s="31" t="n">
         <v>12779.37964</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="25" t="n">
         <v>81.235</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="28" t="n">
         <v>20434176</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="31" t="n">
         <v>34435.36744</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10">
-      <c r="B10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="25" t="n">
         <v>79.829</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="28" t="n">
         <v>8199783</v>
       </c>
-      <c r="F10" s="19" t="n">
+      <c r="F10" s="31" t="n">
         <v>36126.4927</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11">
-      <c r="B11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19" t="n">
+      <c r="D11" s="25" t="n">
         <v>75.635</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="28" t="n">
         <v>708573</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="F11" s="31" t="n">
         <v>29796.04834</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="25" t="n">
         <v>64.062</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="28" t="n">
         <v>150448339</v>
       </c>
-      <c r="F12" s="19" t="n">
+      <c r="F12" s="31" t="n">
         <v>1391.253792</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13">
-      <c r="B13" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="25" t="n">
         <v>79.441</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="28" t="n">
         <v>10392226</v>
       </c>
-      <c r="F13" s="19" t="n">
+      <c r="F13" s="31" t="n">
         <v>33692.60508</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14">
-      <c r="B14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="19" t="n">
+      <c r="B14" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="25" t="n">
         <v>56.728</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="28" t="n">
         <v>8078314</v>
       </c>
-      <c r="F14" s="19" t="n">
+      <c r="F14" s="31" t="n">
         <v>1441.284873</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15">
-      <c r="B15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="25" t="n">
         <v>65.554</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="28" t="n">
         <v>9119152</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="F15" s="31" t="n">
         <v>3822.137084</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16">
-      <c r="B16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="25" t="n">
         <v>74.852</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="28" t="n">
         <v>4552198</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="F16" s="31" t="n">
         <v>7446.298803</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17">
-      <c r="B17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="19" t="n">
+      <c r="B17" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25" t="n">
         <v>50.728</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="28" t="n">
         <v>1639131</v>
       </c>
-      <c r="F17" s="19" t="n">
+      <c r="F17" s="31" t="n">
         <v>12569.85177</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="19" t="n">
+      <c r="D18" s="25" t="n">
         <v>72.39</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="28" t="n">
         <v>190010647</v>
       </c>
-      <c r="F18" s="19" t="n">
+      <c r="F18" s="31" t="n">
         <v>9065.800825</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19">
-      <c r="B19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="25" t="n">
         <v>73.005</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="28" t="n">
         <v>7322858</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="F19" s="31" t="n">
         <v>10680.79282</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20">
-      <c r="B20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="19" t="n">
+      <c r="B20" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="25" t="n">
         <v>52.295</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="28" t="n">
         <v>14326203</v>
       </c>
-      <c r="F20" s="19" t="n">
+      <c r="F20" s="31" t="n">
         <v>1217.032994</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21">
-      <c r="B21" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="19" t="n">
+      <c r="B21" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="25" t="n">
         <v>49.58</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="28" t="n">
         <v>8390505</v>
       </c>
-      <c r="F21" s="19" t="n">
+      <c r="F21" s="31" t="n">
         <v>430.0706916</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22">
-      <c r="B22" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D22" s="25" t="n">
         <v>59.723</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="28" t="n">
         <v>14131858</v>
       </c>
-      <c r="F22" s="19" t="n">
+      <c r="F22" s="31" t="n">
         <v>1713.778686</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23">
-      <c r="B23" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="19" t="n">
+      <c r="B23" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="25" t="n">
         <v>50.43</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="28" t="n">
         <v>17696293</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="F23" s="31" t="n">
         <v>2042.09524</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24">
-      <c r="B24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="19" t="n">
+      <c r="D24" s="25" t="n">
         <v>80.653</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="28" t="n">
         <v>33390141</v>
       </c>
-      <c r="F24" s="19" t="n">
+      <c r="F24" s="31" t="n">
         <v>36319.23501</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25">
-      <c r="B25" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="19" t="n">
+      <c r="B25" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="25" t="n">
         <v>44.741</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="28" t="n">
         <v>4369038</v>
       </c>
-      <c r="F25" s="19" t="n">
+      <c r="F25" s="31" t="n">
         <v>706.016537</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26">
-      <c r="B26" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="19" t="n">
+      <c r="B26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="25" t="n">
         <v>50.651</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="28" t="n">
         <v>10238807</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="31" t="n">
         <v>1704.063724</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27">
-      <c r="B27" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="19" t="n">
+      <c r="D27" s="25" t="n">
         <v>78.553</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="28" t="n">
         <v>16284741</v>
       </c>
-      <c r="F27" s="19" t="n">
+      <c r="F27" s="31" t="n">
         <v>13171.63885</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="19" t="n">
+      <c r="D28" s="25" t="n">
         <v>72.961</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="28" t="n">
         <v>1318683096</v>
       </c>
-      <c r="F28" s="19" t="n">
+      <c r="F28" s="31" t="n">
         <v>4959.114854</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="19" t="n">
+      <c r="D29" s="25" t="n">
         <v>72.889</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="28" t="n">
         <v>44227550</v>
       </c>
-      <c r="F29" s="19" t="n">
+      <c r="F29" s="31" t="n">
         <v>7006.580419</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30">
-      <c r="B30" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="19" t="n">
+      <c r="B30" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="25" t="n">
         <v>65.152</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="28" t="n">
         <v>710960</v>
       </c>
-      <c r="F30" s="19" t="n">
+      <c r="F30" s="31" t="n">
         <v>986.1478792</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="19" t="n">
+      <c r="C31" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="25" t="n">
         <v>46.462</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="28" t="n">
         <v>64606759</v>
       </c>
-      <c r="F31" s="19" t="n">
+      <c r="F31" s="31" t="n">
         <v>277.5518587</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32">
-      <c r="B32" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="19" t="n">
+      <c r="B32" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="25" t="n">
         <v>55.322</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="28" t="n">
         <v>3800610</v>
       </c>
-      <c r="F32" s="19" t="n">
+      <c r="F32" s="31" t="n">
         <v>3632.557798</v>
       </c>
-      <c r="G32" s="16"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33">
-      <c r="B33" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="19" t="n">
+      <c r="D33" s="25" t="n">
         <v>78.782</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="28" t="n">
         <v>4133884</v>
       </c>
-      <c r="F33" s="19" t="n">
+      <c r="F33" s="31" t="n">
         <v>9645.06142</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34">
-      <c r="B34" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="19" t="n">
+      <c r="B34" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="25" t="n">
         <v>48.328</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="28" t="n">
         <v>18013409</v>
       </c>
-      <c r="F34" s="19" t="n">
+      <c r="F34" s="31" t="n">
         <v>1544.750112</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35">
-      <c r="B35" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="19" t="n">
+      <c r="D35" s="25" t="n">
         <v>75.748</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="28" t="n">
         <v>4493312</v>
       </c>
-      <c r="F35" s="19" t="n">
+      <c r="F35" s="31" t="n">
         <v>14619.22272</v>
       </c>
-      <c r="G35" s="16"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36">
-      <c r="B36" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="B36" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="19" t="n">
+      <c r="D36" s="25" t="n">
         <v>78.273</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="28" t="n">
         <v>11416987</v>
       </c>
-      <c r="F36" s="19" t="n">
+      <c r="F36" s="31" t="n">
         <v>8948.102923</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37">
-      <c r="B37" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="19" t="n">
+      <c r="D37" s="25" t="n">
         <v>76.486</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="28" t="n">
         <v>10228744</v>
       </c>
-      <c r="F37" s="19" t="n">
+      <c r="F37" s="31" t="n">
         <v>22833.30851</v>
       </c>
-      <c r="G37" s="16"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38">
-      <c r="B38" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="19" t="n">
+      <c r="D38" s="25" t="n">
         <v>78.332</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="28" t="n">
         <v>5468120</v>
       </c>
-      <c r="F38" s="19" t="n">
+      <c r="F38" s="31" t="n">
         <v>35278.41874</v>
       </c>
-      <c r="G38" s="16"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39">
-      <c r="B39" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="19" t="n">
+      <c r="B39" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="25" t="n">
         <v>54.791</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="28" t="n">
         <v>496374</v>
       </c>
-      <c r="F39" s="19" t="n">
+      <c r="F39" s="31" t="n">
         <v>2082.481567</v>
       </c>
-      <c r="G39" s="16"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40">
-      <c r="B40" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="19" t="n">
+      <c r="D40" s="25" t="n">
         <v>72.235</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="28" t="n">
         <v>9319622</v>
       </c>
-      <c r="F40" s="19" t="n">
+      <c r="F40" s="31" t="n">
         <v>6025.374752</v>
       </c>
-      <c r="G40" s="16"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41">
-      <c r="B41" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="17" t="s">
+      <c r="B41" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="19" t="n">
+      <c r="D41" s="25" t="n">
         <v>74.994</v>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="28" t="n">
         <v>13755680</v>
       </c>
-      <c r="F41" s="19" t="n">
+      <c r="F41" s="31" t="n">
         <v>6873.262326</v>
       </c>
-      <c r="G41" s="16"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="19" t="n">
+      <c r="C42" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="25" t="n">
         <v>71.338</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="28" t="n">
         <v>80264543</v>
       </c>
-      <c r="F42" s="19" t="n">
+      <c r="F42" s="31" t="n">
         <v>5581.180998</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="22"/>
     </row>
     <row r="43">
-      <c r="B43" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="19" t="n">
+      <c r="D43" s="25" t="n">
         <v>71.878</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="28" t="n">
         <v>6939688</v>
       </c>
-      <c r="F43" s="19" t="n">
+      <c r="F43" s="31" t="n">
         <v>5728.353514</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44">
-      <c r="B44" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="19" t="n">
+      <c r="B44" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="25" t="n">
         <v>51.579</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="28" t="n">
         <v>551201</v>
       </c>
-      <c r="F44" s="19" t="n">
+      <c r="F44" s="31" t="n">
         <v>12154.08975</v>
       </c>
-      <c r="G44" s="16"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45">
-      <c r="B45" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="19" t="n">
+      <c r="B45" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="25" t="n">
         <v>58.04</v>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="28" t="n">
         <v>4906585</v>
       </c>
-      <c r="F45" s="19" t="n">
+      <c r="F45" s="31" t="n">
         <v>641.3695236</v>
       </c>
-      <c r="G45" s="16"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="19" t="n">
+      <c r="C46" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="25" t="n">
         <v>52.947</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="28" t="n">
         <v>76511887</v>
       </c>
-      <c r="F46" s="19" t="n">
+      <c r="F46" s="31" t="n">
         <v>690.8055759</v>
       </c>
-      <c r="G46" s="16"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47">
-      <c r="B47" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="19" t="n">
+      <c r="D47" s="25" t="n">
         <v>79.313</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="28" t="n">
         <v>5238460</v>
       </c>
-      <c r="F47" s="19" t="n">
+      <c r="F47" s="31" t="n">
         <v>33207.0844</v>
       </c>
-      <c r="G47" s="16"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="19" t="n">
+      <c r="D48" s="25" t="n">
         <v>80.657</v>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="28" t="n">
         <v>61083916</v>
       </c>
-      <c r="F48" s="19" t="n">
+      <c r="F48" s="31" t="n">
         <v>30470.0167</v>
       </c>
-      <c r="G48" s="16"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49">
-      <c r="B49" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="19" t="n">
+      <c r="B49" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="25" t="n">
         <v>56.735</v>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="28" t="n">
         <v>1454867</v>
       </c>
-      <c r="F49" s="19" t="n">
+      <c r="F49" s="31" t="n">
         <v>13206.48452</v>
       </c>
-      <c r="G49" s="16"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="50">
-      <c r="B50" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="19" t="n">
+      <c r="B50" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="25" t="n">
         <v>59.448</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="28" t="n">
         <v>1688359</v>
       </c>
-      <c r="F50" s="19" t="n">
+      <c r="F50" s="31" t="n">
         <v>752.7497265</v>
       </c>
-      <c r="G50" s="16"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="19" t="n">
+      <c r="D51" s="25" t="n">
         <v>79.406</v>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="28" t="n">
         <v>82400996</v>
       </c>
-      <c r="F51" s="19" t="n">
+      <c r="F51" s="31" t="n">
         <v>32170.37442</v>
       </c>
-      <c r="G51" s="16"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52">
-      <c r="B52" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="19" t="n">
+      <c r="B52" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="25" t="n">
         <v>60.022</v>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="28" t="n">
         <v>22873338</v>
       </c>
-      <c r="F52" s="19" t="n">
+      <c r="F52" s="31" t="n">
         <v>1327.60891</v>
       </c>
-      <c r="G52" s="16"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53">
-      <c r="B53" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="19" t="n">
+      <c r="D53" s="25" t="n">
         <v>79.483</v>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="28" t="n">
         <v>10706290</v>
       </c>
-      <c r="F53" s="19" t="n">
+      <c r="F53" s="31" t="n">
         <v>27538.41188</v>
       </c>
-      <c r="G53" s="16"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54">
-      <c r="B54" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="17" t="s">
+      <c r="B54" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="19" t="n">
+      <c r="D54" s="25" t="n">
         <v>70.259</v>
       </c>
-      <c r="E54" s="3" t="n">
+      <c r="E54" s="28" t="n">
         <v>12572928</v>
       </c>
-      <c r="F54" s="19" t="n">
+      <c r="F54" s="31" t="n">
         <v>5186.050003</v>
       </c>
-      <c r="G54" s="16"/>
+      <c r="G54" s="22"/>
     </row>
     <row r="55">
-      <c r="B55" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="19" t="n">
+      <c r="B55" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="25" t="n">
         <v>56.007</v>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="28" t="n">
         <v>9947814</v>
       </c>
-      <c r="F55" s="19" t="n">
+      <c r="F55" s="31" t="n">
         <v>942.6542111</v>
       </c>
-      <c r="G55" s="16"/>
+      <c r="G55" s="22"/>
     </row>
     <row r="56">
-      <c r="B56" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="19" t="n">
+      <c r="B56" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="25" t="n">
         <v>46.388</v>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="28" t="n">
         <v>1472041</v>
       </c>
-      <c r="F56" s="19" t="n">
+      <c r="F56" s="31" t="n">
         <v>579.231743</v>
       </c>
-      <c r="G56" s="16"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="57">
-      <c r="B57" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="17" t="s">
+      <c r="B57" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="19" t="n">
+      <c r="D57" s="25" t="n">
         <v>60.916</v>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="28" t="n">
         <v>8502814</v>
       </c>
-      <c r="F57" s="19" t="n">
+      <c r="F57" s="31" t="n">
         <v>1201.637154</v>
       </c>
-      <c r="G57" s="16"/>
+      <c r="G57" s="22"/>
     </row>
     <row r="58">
-      <c r="B58" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="17" t="s">
+      <c r="B58" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="19" t="n">
+      <c r="D58" s="25" t="n">
         <v>70.198</v>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="28" t="n">
         <v>7483763</v>
       </c>
-      <c r="F58" s="19" t="n">
+      <c r="F58" s="31" t="n">
         <v>3548.330846</v>
       </c>
-      <c r="G58" s="16"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59">
-      <c r="B59" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="17" t="s">
+      <c r="B59" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="19" t="n">
+      <c r="D59" s="25" t="n">
         <v>82.208</v>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="28" t="n">
         <v>6980412</v>
       </c>
-      <c r="F59" s="19" t="n">
+      <c r="F59" s="31" t="n">
         <v>39724.97867</v>
       </c>
-      <c r="G59" s="16"/>
+      <c r="G59" s="22"/>
     </row>
     <row r="60">
-      <c r="B60" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="17" t="s">
+      <c r="B60" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="19" t="n">
+      <c r="D60" s="25" t="n">
         <v>73.338</v>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="28" t="n">
         <v>9956108</v>
       </c>
-      <c r="F60" s="19" t="n">
+      <c r="F60" s="31" t="n">
         <v>18008.94444</v>
       </c>
-      <c r="G60" s="16"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61">
-      <c r="B61" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="17" t="s">
+      <c r="B61" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="19" t="n">
+      <c r="D61" s="25" t="n">
         <v>81.757</v>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="E61" s="28" t="n">
         <v>301931</v>
       </c>
-      <c r="F61" s="19" t="n">
+      <c r="F61" s="31" t="n">
         <v>36180.78919</v>
       </c>
-      <c r="G61" s="16"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62">
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="19" t="n">
+      <c r="D62" s="25" t="n">
         <v>64.698</v>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="E62" s="28" t="n">
         <v>1110396331</v>
       </c>
-      <c r="F62" s="19" t="n">
+      <c r="F62" s="31" t="n">
         <v>2452.210407</v>
       </c>
-      <c r="G62" s="16"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63">
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="19" t="n">
+      <c r="D63" s="25" t="n">
         <v>70.65</v>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="28" t="n">
         <v>223547000</v>
       </c>
-      <c r="F63" s="19" t="n">
+      <c r="F63" s="31" t="n">
         <v>3540.651564</v>
       </c>
-      <c r="G63" s="16"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64">
-      <c r="B64" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="17" t="s">
+      <c r="B64" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="19" t="n">
+      <c r="D64" s="25" t="n">
         <v>70.964</v>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="28" t="n">
         <v>69453570</v>
       </c>
-      <c r="F64" s="19" t="n">
+      <c r="F64" s="31" t="n">
         <v>11605.71449</v>
       </c>
-      <c r="G64" s="16"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65">
-      <c r="B65" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="17" t="s">
+      <c r="B65" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="19" t="n">
+      <c r="D65" s="25" t="n">
         <v>59.545</v>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="28" t="n">
         <v>27499638</v>
       </c>
-      <c r="F65" s="19" t="n">
+      <c r="F65" s="31" t="n">
         <v>4471.061906</v>
       </c>
-      <c r="G65" s="16"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66">
-      <c r="B66" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="17" t="s">
+      <c r="B66" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="19" t="n">
+      <c r="D66" s="25" t="n">
         <v>78.885</v>
       </c>
-      <c r="E66" s="3" t="n">
+      <c r="E66" s="28" t="n">
         <v>4109086</v>
       </c>
-      <c r="F66" s="19" t="n">
+      <c r="F66" s="31" t="n">
         <v>40675.99635</v>
       </c>
-      <c r="G66" s="16"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67">
-      <c r="B67" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="17" t="s">
+      <c r="B67" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="19" t="n">
+      <c r="D67" s="25" t="n">
         <v>80.745</v>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="28" t="n">
         <v>6426679</v>
       </c>
-      <c r="F67" s="19" t="n">
+      <c r="F67" s="31" t="n">
         <v>25523.2771</v>
       </c>
-      <c r="G67" s="16"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68">
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="19" t="n">
+      <c r="D68" s="25" t="n">
         <v>80.546</v>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="28" t="n">
         <v>58147733</v>
       </c>
-      <c r="F68" s="19" t="n">
+      <c r="F68" s="31" t="n">
         <v>28569.7197</v>
       </c>
-      <c r="G68" s="16"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69">
-      <c r="B69" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="17" t="s">
+      <c r="B69" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="19" t="n">
+      <c r="D69" s="25" t="n">
         <v>72.567</v>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="28" t="n">
         <v>2780132</v>
       </c>
-      <c r="F69" s="19" t="n">
+      <c r="F69" s="31" t="n">
         <v>7320.880262</v>
       </c>
-      <c r="G69" s="16"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70">
-      <c r="B70" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="17" t="s">
+      <c r="B70" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="19" t="n">
+      <c r="D70" s="25" t="n">
         <v>82.603</v>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="28" t="n">
         <v>127467972</v>
       </c>
-      <c r="F70" s="19" t="n">
+      <c r="F70" s="31" t="n">
         <v>31656.06806</v>
       </c>
-      <c r="G70" s="16"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71">
-      <c r="B71" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="17" t="s">
+      <c r="B71" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="19" t="n">
+      <c r="D71" s="25" t="n">
         <v>72.535</v>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="28" t="n">
         <v>6053193</v>
       </c>
-      <c r="F71" s="19" t="n">
+      <c r="F71" s="31" t="n">
         <v>4519.461171</v>
       </c>
-      <c r="G71" s="16"/>
+      <c r="G71" s="22"/>
     </row>
     <row r="72">
-      <c r="B72" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="19" t="n">
+      <c r="B72" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="25" t="n">
         <v>54.11</v>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="E72" s="28" t="n">
         <v>35610177</v>
       </c>
-      <c r="F72" s="19" t="n">
+      <c r="F72" s="31" t="n">
         <v>1463.249282</v>
       </c>
-      <c r="G72" s="16"/>
+      <c r="G72" s="22"/>
     </row>
     <row r="73">
-      <c r="B73" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="17" t="s">
+      <c r="B73" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="19" t="n">
+      <c r="D73" s="25" t="n">
         <v>67.297</v>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="28" t="n">
         <v>23301725</v>
       </c>
-      <c r="F73" s="19" t="n">
+      <c r="F73" s="31" t="n">
         <v>1593.06548</v>
       </c>
-      <c r="G73" s="16"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74">
-      <c r="B74" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="17" t="s">
+      <c r="B74" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="19" t="n">
+      <c r="D74" s="25" t="n">
         <v>78.623</v>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="28" t="n">
         <v>49044790</v>
       </c>
-      <c r="F74" s="19" t="n">
+      <c r="F74" s="31" t="n">
         <v>23348.13973</v>
       </c>
-      <c r="G74" s="16"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75">
-      <c r="B75" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="17" t="s">
+      <c r="B75" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="19" t="n">
+      <c r="D75" s="25" t="n">
         <v>77.588</v>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="E75" s="28" t="n">
         <v>2505559</v>
       </c>
-      <c r="F75" s="19" t="n">
+      <c r="F75" s="31" t="n">
         <v>47306.98978</v>
       </c>
-      <c r="G75" s="16"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76">
-      <c r="B76" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="17" t="s">
+      <c r="B76" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="19" t="n">
+      <c r="D76" s="25" t="n">
         <v>71.993</v>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="28" t="n">
         <v>3921278</v>
       </c>
-      <c r="F76" s="19" t="n">
+      <c r="F76" s="31" t="n">
         <v>10461.05868</v>
       </c>
-      <c r="G76" s="16"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77">
-      <c r="B77" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="19" t="n">
+      <c r="B77" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="25" t="n">
         <v>42.592</v>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="E77" s="28" t="n">
         <v>2012649</v>
       </c>
-      <c r="F77" s="19" t="n">
+      <c r="F77" s="31" t="n">
         <v>1569.331442</v>
       </c>
-      <c r="G77" s="16"/>
+      <c r="G77" s="22"/>
     </row>
     <row r="78">
-      <c r="B78" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="19" t="n">
+      <c r="B78" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="25" t="n">
         <v>45.678</v>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="28" t="n">
         <v>3193942</v>
       </c>
-      <c r="F78" s="19" t="n">
+      <c r="F78" s="31" t="n">
         <v>414.5073415</v>
       </c>
-      <c r="G78" s="16"/>
+      <c r="G78" s="22"/>
     </row>
     <row r="79">
-      <c r="B79" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="19" t="n">
+      <c r="B79" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="25" t="n">
         <v>73.952</v>
       </c>
-      <c r="E79" s="3" t="n">
+      <c r="E79" s="28" t="n">
         <v>6036914</v>
       </c>
-      <c r="F79" s="19" t="n">
+      <c r="F79" s="31" t="n">
         <v>12057.49928</v>
       </c>
-      <c r="G79" s="16"/>
+      <c r="G79" s="22"/>
     </row>
     <row r="80">
-      <c r="B80" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="19" t="n">
+      <c r="B80" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="25" t="n">
         <v>59.443</v>
       </c>
-      <c r="E80" s="3" t="n">
+      <c r="E80" s="28" t="n">
         <v>19167654</v>
       </c>
-      <c r="F80" s="19" t="n">
+      <c r="F80" s="31" t="n">
         <v>1044.770126</v>
       </c>
-      <c r="G80" s="16"/>
+      <c r="G80" s="22"/>
     </row>
     <row r="81">
-      <c r="B81" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="19" t="n">
+      <c r="B81" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="25" t="n">
         <v>48.303</v>
       </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="28" t="n">
         <v>13327079</v>
       </c>
-      <c r="F81" s="19" t="n">
+      <c r="F81" s="31" t="n">
         <v>759.3499101</v>
       </c>
-      <c r="G81" s="16"/>
+      <c r="G81" s="22"/>
     </row>
     <row r="82">
-      <c r="B82" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" s="17" t="s">
+      <c r="B82" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="19" t="n">
+      <c r="D82" s="25" t="n">
         <v>74.241</v>
       </c>
-      <c r="E82" s="3" t="n">
+      <c r="E82" s="28" t="n">
         <v>24821286</v>
       </c>
-      <c r="F82" s="19" t="n">
+      <c r="F82" s="31" t="n">
         <v>12451.6558</v>
       </c>
-      <c r="G82" s="16"/>
+      <c r="G82" s="22"/>
     </row>
     <row r="83">
-      <c r="B83" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="19" t="n">
+      <c r="B83" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="25" t="n">
         <v>54.467</v>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="E83" s="28" t="n">
         <v>12031795</v>
       </c>
-      <c r="F83" s="19" t="n">
+      <c r="F83" s="31" t="n">
         <v>1042.581557</v>
       </c>
-      <c r="G83" s="16"/>
+      <c r="G83" s="22"/>
     </row>
     <row r="84">
-      <c r="B84" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="19" t="n">
+      <c r="B84" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="25" t="n">
         <v>64.164</v>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="E84" s="28" t="n">
         <v>3270065</v>
       </c>
-      <c r="F84" s="19" t="n">
+      <c r="F84" s="31" t="n">
         <v>1803.151496</v>
       </c>
-      <c r="G84" s="16"/>
+      <c r="G84" s="22"/>
     </row>
     <row r="85">
-      <c r="B85" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="19" t="n">
+      <c r="B85" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="25" t="n">
         <v>72.801</v>
       </c>
-      <c r="E85" s="3" t="n">
+      <c r="E85" s="28" t="n">
         <v>1250882</v>
       </c>
-      <c r="F85" s="19" t="n">
+      <c r="F85" s="31" t="n">
         <v>10956.99112</v>
       </c>
-      <c r="G85" s="16"/>
+      <c r="G85" s="22"/>
     </row>
     <row r="86">
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="19" t="n">
+      <c r="D86" s="25" t="n">
         <v>76.195</v>
       </c>
-      <c r="E86" s="3" t="n">
+      <c r="E86" s="28" t="n">
         <v>108700891</v>
       </c>
-      <c r="F86" s="19" t="n">
+      <c r="F86" s="31" t="n">
         <v>11977.57496</v>
       </c>
-      <c r="G86" s="16"/>
+      <c r="G86" s="22"/>
     </row>
     <row r="87">
-      <c r="B87" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="17" t="s">
+      <c r="B87" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="19" t="n">
+      <c r="D87" s="25" t="n">
         <v>66.803</v>
       </c>
-      <c r="E87" s="3" t="n">
+      <c r="E87" s="28" t="n">
         <v>2874127</v>
       </c>
-      <c r="F87" s="19" t="n">
+      <c r="F87" s="31" t="n">
         <v>3095.772271</v>
       </c>
-      <c r="G87" s="16"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88">
-      <c r="B88" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="17" t="s">
+      <c r="B88" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="19" t="n">
+      <c r="D88" s="25" t="n">
         <v>74.543</v>
       </c>
-      <c r="E88" s="3" t="n">
+      <c r="E88" s="28" t="n">
         <v>684736</v>
       </c>
-      <c r="F88" s="19" t="n">
+      <c r="F88" s="31" t="n">
         <v>9253.896111</v>
       </c>
-      <c r="G88" s="16"/>
+      <c r="G88" s="22"/>
     </row>
     <row r="89">
-      <c r="B89" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="19" t="n">
+      <c r="B89" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="25" t="n">
         <v>71.164</v>
       </c>
-      <c r="E89" s="3" t="n">
+      <c r="E89" s="28" t="n">
         <v>33757175</v>
       </c>
-      <c r="F89" s="19" t="n">
+      <c r="F89" s="31" t="n">
         <v>3820.17523</v>
       </c>
-      <c r="G89" s="16"/>
+      <c r="G89" s="22"/>
     </row>
     <row r="90">
-      <c r="B90" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="19" t="n">
+      <c r="B90" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="25" t="n">
         <v>42.082</v>
       </c>
-      <c r="E90" s="3" t="n">
+      <c r="E90" s="28" t="n">
         <v>19951656</v>
       </c>
-      <c r="F90" s="19" t="n">
+      <c r="F90" s="31" t="n">
         <v>823.6856205</v>
       </c>
-      <c r="G90" s="16"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="91">
-      <c r="B91" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" s="17" t="s">
+      <c r="B91" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="19" t="n">
+      <c r="D91" s="25" t="n">
         <v>62.069</v>
       </c>
-      <c r="E91" s="3" t="n">
+      <c r="E91" s="28" t="n">
         <v>47761980</v>
       </c>
-      <c r="F91" s="19" t="n">
+      <c r="F91" s="31" t="n">
         <v>944</v>
       </c>
-      <c r="G91" s="16"/>
+      <c r="G91" s="22"/>
     </row>
     <row r="92">
-      <c r="B92" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="19" t="n">
+      <c r="B92" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="25" t="n">
         <v>52.906</v>
       </c>
-      <c r="E92" s="3" t="n">
+      <c r="E92" s="28" t="n">
         <v>2055080</v>
       </c>
-      <c r="F92" s="19" t="n">
+      <c r="F92" s="31" t="n">
         <v>4811.060429</v>
       </c>
-      <c r="G92" s="16"/>
+      <c r="G92" s="22"/>
     </row>
     <row r="93">
-      <c r="B93" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="17" t="s">
+      <c r="B93" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="19" t="n">
+      <c r="D93" s="25" t="n">
         <v>63.785</v>
       </c>
-      <c r="E93" s="3" t="n">
+      <c r="E93" s="28" t="n">
         <v>28901790</v>
       </c>
-      <c r="F93" s="19" t="n">
+      <c r="F93" s="31" t="n">
         <v>1091.359778</v>
       </c>
-      <c r="G93" s="16"/>
+      <c r="G93" s="22"/>
     </row>
     <row r="94">
-      <c r="B94" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="17" t="s">
+      <c r="B94" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="19" t="n">
+      <c r="D94" s="25" t="n">
         <v>79.762</v>
       </c>
-      <c r="E94" s="3" t="n">
+      <c r="E94" s="28" t="n">
         <v>16570613</v>
       </c>
-      <c r="F94" s="19" t="n">
+      <c r="F94" s="31" t="n">
         <v>36797.93332</v>
       </c>
-      <c r="G94" s="16"/>
+      <c r="G94" s="22"/>
     </row>
     <row r="95">
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="19" t="n">
+      <c r="D95" s="25" t="n">
         <v>80.204</v>
       </c>
-      <c r="E95" s="3" t="n">
+      <c r="E95" s="28" t="n">
         <v>4115771</v>
       </c>
-      <c r="F95" s="19" t="n">
+      <c r="F95" s="31" t="n">
         <v>25185.00911</v>
       </c>
-      <c r="G95" s="16"/>
+      <c r="G95" s="22"/>
     </row>
     <row r="96">
-      <c r="B96" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" s="17" t="s">
+      <c r="B96" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="19" t="n">
+      <c r="D96" s="25" t="n">
         <v>72.899</v>
       </c>
-      <c r="E96" s="3" t="n">
+      <c r="E96" s="28" t="n">
         <v>5675356</v>
       </c>
-      <c r="F96" s="19" t="n">
+      <c r="F96" s="31" t="n">
         <v>2749.320965</v>
       </c>
-      <c r="G96" s="16"/>
+      <c r="G96" s="22"/>
     </row>
     <row r="97">
-      <c r="B97" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="19" t="n">
+      <c r="B97" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="25" t="n">
         <v>56.867</v>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="E97" s="28" t="n">
         <v>12894865</v>
       </c>
-      <c r="F97" s="19" t="n">
+      <c r="F97" s="31" t="n">
         <v>619.6768924</v>
       </c>
-      <c r="G97" s="16"/>
+      <c r="G97" s="22"/>
     </row>
     <row r="98">
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="19" t="n">
+      <c r="C98" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="25" t="n">
         <v>46.859</v>
       </c>
-      <c r="E98" s="3" t="n">
+      <c r="E98" s="28" t="n">
         <v>135031164</v>
       </c>
-      <c r="F98" s="19" t="n">
+      <c r="F98" s="31" t="n">
         <v>2013.977305</v>
       </c>
-      <c r="G98" s="16"/>
+      <c r="G98" s="22"/>
     </row>
     <row r="99">
-      <c r="B99" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C99" s="17" t="s">
+      <c r="B99" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D99" s="19" t="n">
+      <c r="D99" s="25" t="n">
         <v>80.196</v>
       </c>
-      <c r="E99" s="3" t="n">
+      <c r="E99" s="28" t="n">
         <v>4627926</v>
       </c>
-      <c r="F99" s="19" t="n">
+      <c r="F99" s="31" t="n">
         <v>49357.19017</v>
       </c>
-      <c r="G99" s="16"/>
+      <c r="G99" s="22"/>
     </row>
     <row r="100">
-      <c r="B100" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="17" t="s">
+      <c r="B100" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="19" t="n">
+      <c r="D100" s="25" t="n">
         <v>75.64</v>
       </c>
-      <c r="E100" s="3" t="n">
+      <c r="E100" s="28" t="n">
         <v>3204897</v>
       </c>
-      <c r="F100" s="19" t="n">
+      <c r="F100" s="31" t="n">
         <v>22316.19287</v>
       </c>
-      <c r="G100" s="16"/>
+      <c r="G100" s="22"/>
     </row>
     <row r="101">
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="19" t="n">
+      <c r="D101" s="25" t="n">
         <v>65.483</v>
       </c>
-      <c r="E101" s="3" t="n">
+      <c r="E101" s="28" t="n">
         <v>169270617</v>
       </c>
-      <c r="F101" s="19" t="n">
+      <c r="F101" s="31" t="n">
         <v>2605.94758</v>
       </c>
-      <c r="G101" s="16"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102">
-      <c r="B102" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" s="17" t="s">
+      <c r="B102" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="19" t="n">
+      <c r="D102" s="25" t="n">
         <v>75.537</v>
       </c>
-      <c r="E102" s="3" t="n">
+      <c r="E102" s="28" t="n">
         <v>3242173</v>
       </c>
-      <c r="F102" s="19" t="n">
+      <c r="F102" s="31" t="n">
         <v>9809.185636</v>
       </c>
-      <c r="G102" s="16"/>
+      <c r="G102" s="22"/>
     </row>
     <row r="103">
-      <c r="B103" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C103" s="17" t="s">
+      <c r="B103" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="19" t="n">
+      <c r="D103" s="25" t="n">
         <v>71.752</v>
       </c>
-      <c r="E103" s="3" t="n">
+      <c r="E103" s="28" t="n">
         <v>6667147</v>
       </c>
-      <c r="F103" s="19" t="n">
+      <c r="F103" s="31" t="n">
         <v>4172.838464</v>
       </c>
-      <c r="G103" s="16"/>
+      <c r="G103" s="22"/>
     </row>
     <row r="104">
-      <c r="B104" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C104" s="17" t="s">
+      <c r="B104" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="19" t="n">
+      <c r="D104" s="25" t="n">
         <v>71.421</v>
       </c>
-      <c r="E104" s="3" t="n">
+      <c r="E104" s="28" t="n">
         <v>28674757</v>
       </c>
-      <c r="F104" s="19" t="n">
+      <c r="F104" s="31" t="n">
         <v>7408.905561</v>
       </c>
-      <c r="G104" s="16"/>
+      <c r="G104" s="22"/>
     </row>
     <row r="105">
-      <c r="B105" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105" s="17" t="s">
+      <c r="B105" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="19" t="n">
+      <c r="D105" s="25" t="n">
         <v>71.688</v>
       </c>
-      <c r="E105" s="3" t="n">
+      <c r="E105" s="28" t="n">
         <v>91077287</v>
       </c>
-      <c r="F105" s="19" t="n">
+      <c r="F105" s="31" t="n">
         <v>3190.481016</v>
       </c>
-      <c r="G105" s="16"/>
+      <c r="G105" s="22"/>
     </row>
     <row r="106">
-      <c r="B106" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C106" s="17" t="s">
+      <c r="B106" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D106" s="19" t="n">
+      <c r="D106" s="25" t="n">
         <v>75.563</v>
       </c>
-      <c r="E106" s="3" t="n">
+      <c r="E106" s="28" t="n">
         <v>38518241</v>
       </c>
-      <c r="F106" s="19" t="n">
+      <c r="F106" s="31" t="n">
         <v>15389.92468</v>
       </c>
-      <c r="G106" s="16"/>
+      <c r="G106" s="22"/>
     </row>
     <row r="107">
-      <c r="B107" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C107" s="17" t="s">
+      <c r="B107" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D107" s="19" t="n">
+      <c r="D107" s="25" t="n">
         <v>78.098</v>
       </c>
-      <c r="E107" s="3" t="n">
+      <c r="E107" s="28" t="n">
         <v>10642836</v>
       </c>
-      <c r="F107" s="19" t="n">
+      <c r="F107" s="31" t="n">
         <v>20509.64777</v>
       </c>
-      <c r="G107" s="16"/>
+      <c r="G107" s="22"/>
     </row>
     <row r="108">
-      <c r="B108" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C108" s="17" t="s">
+      <c r="B108" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="19" t="n">
+      <c r="D108" s="25" t="n">
         <v>78.746</v>
       </c>
-      <c r="E108" s="3" t="n">
+      <c r="E108" s="28" t="n">
         <v>3942491</v>
       </c>
-      <c r="F108" s="19" t="n">
+      <c r="F108" s="31" t="n">
         <v>19328.70901</v>
       </c>
-      <c r="G108" s="16"/>
+      <c r="G108" s="22"/>
     </row>
     <row r="109">
-      <c r="B109" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="19" t="n">
+      <c r="B109" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="25" t="n">
         <v>76.442</v>
       </c>
-      <c r="E109" s="3" t="n">
+      <c r="E109" s="28" t="n">
         <v>798094</v>
       </c>
-      <c r="F109" s="19" t="n">
+      <c r="F109" s="31" t="n">
         <v>7670.122558</v>
       </c>
-      <c r="G109" s="16"/>
+      <c r="G109" s="22"/>
     </row>
     <row r="110">
-      <c r="B110" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="17" t="s">
+      <c r="B110" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D110" s="19" t="n">
+      <c r="D110" s="25" t="n">
         <v>72.476</v>
       </c>
-      <c r="E110" s="3" t="n">
+      <c r="E110" s="28" t="n">
         <v>22276056</v>
       </c>
-      <c r="F110" s="19" t="n">
+      <c r="F110" s="31" t="n">
         <v>10808.47561</v>
       </c>
-      <c r="G110" s="16"/>
+      <c r="G110" s="22"/>
     </row>
     <row r="111">
-      <c r="B111" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="19" t="n">
+      <c r="B111" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="25" t="n">
         <v>46.242</v>
       </c>
-      <c r="E111" s="3" t="n">
+      <c r="E111" s="28" t="n">
         <v>8860588</v>
       </c>
-      <c r="F111" s="19" t="n">
+      <c r="F111" s="31" t="n">
         <v>863.0884639</v>
       </c>
-      <c r="G111" s="16"/>
+      <c r="G111" s="22"/>
     </row>
     <row r="112">
-      <c r="B112" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="19" t="n">
+      <c r="B112" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="25" t="n">
         <v>65.528</v>
       </c>
-      <c r="E112" s="3" t="n">
+      <c r="E112" s="28" t="n">
         <v>199579</v>
       </c>
-      <c r="F112" s="19" t="n">
+      <c r="F112" s="31" t="n">
         <v>1598.435089</v>
       </c>
-      <c r="G112" s="16"/>
+      <c r="G112" s="22"/>
     </row>
     <row r="113">
-      <c r="B113" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C113" s="17" t="s">
+      <c r="B113" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="19" t="n">
+      <c r="D113" s="25" t="n">
         <v>72.777</v>
       </c>
-      <c r="E113" s="3" t="n">
+      <c r="E113" s="28" t="n">
         <v>27601038</v>
       </c>
-      <c r="F113" s="19" t="n">
+      <c r="F113" s="31" t="n">
         <v>21654.83194</v>
       </c>
-      <c r="G113" s="16"/>
+      <c r="G113" s="22"/>
     </row>
     <row r="114">
-      <c r="B114" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="19" t="n">
+      <c r="B114" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="25" t="n">
         <v>63.062</v>
       </c>
-      <c r="E114" s="3" t="n">
+      <c r="E114" s="28" t="n">
         <v>12267493</v>
       </c>
-      <c r="F114" s="19" t="n">
+      <c r="F114" s="31" t="n">
         <v>1712.472136</v>
       </c>
-      <c r="G114" s="16"/>
+      <c r="G114" s="22"/>
     </row>
     <row r="115">
-      <c r="B115" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C115" s="17" t="s">
+      <c r="B115" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="19" t="n">
+      <c r="D115" s="25" t="n">
         <v>74.002</v>
       </c>
-      <c r="E115" s="3" t="n">
+      <c r="E115" s="28" t="n">
         <v>10150265</v>
       </c>
-      <c r="F115" s="19" t="n">
+      <c r="F115" s="31" t="n">
         <v>9786.534714</v>
       </c>
-      <c r="G115" s="16"/>
+      <c r="G115" s="22"/>
     </row>
     <row r="116">
-      <c r="B116" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="19" t="n">
+      <c r="B116" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="25" t="n">
         <v>42.568</v>
       </c>
-      <c r="E116" s="3" t="n">
+      <c r="E116" s="28" t="n">
         <v>6144562</v>
       </c>
-      <c r="F116" s="19" t="n">
+      <c r="F116" s="31" t="n">
         <v>862.5407561</v>
       </c>
-      <c r="G116" s="16"/>
+      <c r="G116" s="22"/>
     </row>
     <row r="117">
-      <c r="B117" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C117" s="17" t="s">
+      <c r="B117" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D117" s="19" t="n">
+      <c r="D117" s="25" t="n">
         <v>79.972</v>
       </c>
-      <c r="E117" s="3" t="n">
+      <c r="E117" s="28" t="n">
         <v>4553009</v>
       </c>
-      <c r="F117" s="19" t="n">
+      <c r="F117" s="31" t="n">
         <v>47143.17964</v>
       </c>
-      <c r="G117" s="16"/>
+      <c r="G117" s="22"/>
     </row>
     <row r="118">
-      <c r="B118" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C118" s="17" t="s">
+      <c r="B118" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D118" s="19" t="n">
+      <c r="D118" s="25" t="n">
         <v>74.663</v>
       </c>
-      <c r="E118" s="3" t="n">
+      <c r="E118" s="28" t="n">
         <v>5447502</v>
       </c>
-      <c r="F118" s="19" t="n">
+      <c r="F118" s="31" t="n">
         <v>18678.31435</v>
       </c>
-      <c r="G118" s="16"/>
+      <c r="G118" s="22"/>
     </row>
     <row r="119">
-      <c r="B119" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" s="17" t="s">
+      <c r="B119" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D119" s="19" t="n">
+      <c r="D119" s="25" t="n">
         <v>77.926</v>
       </c>
-      <c r="E119" s="3" t="n">
+      <c r="E119" s="28" t="n">
         <v>2009245</v>
       </c>
-      <c r="F119" s="19" t="n">
+      <c r="F119" s="31" t="n">
         <v>25768.25759</v>
       </c>
-      <c r="G119" s="16"/>
+      <c r="G119" s="22"/>
     </row>
     <row r="120">
-      <c r="B120" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="19" t="n">
+      <c r="B120" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="25" t="n">
         <v>48.159</v>
       </c>
-      <c r="E120" s="3" t="n">
+      <c r="E120" s="28" t="n">
         <v>9118773</v>
       </c>
-      <c r="F120" s="19" t="n">
+      <c r="F120" s="31" t="n">
         <v>926.1410683</v>
       </c>
-      <c r="G120" s="16"/>
+      <c r="G120" s="22"/>
     </row>
     <row r="121">
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="19" t="n">
+      <c r="C121" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="25" t="n">
         <v>49.339</v>
       </c>
-      <c r="E121" s="3" t="n">
+      <c r="E121" s="28" t="n">
         <v>43997828</v>
       </c>
-      <c r="F121" s="19" t="n">
+      <c r="F121" s="31" t="n">
         <v>9269.657808</v>
       </c>
-      <c r="G121" s="16"/>
+      <c r="G121" s="22"/>
     </row>
     <row r="122">
-      <c r="B122" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C122" s="17" t="s">
+      <c r="B122" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D122" s="19" t="n">
+      <c r="D122" s="25" t="n">
         <v>80.941</v>
       </c>
-      <c r="E122" s="3" t="n">
+      <c r="E122" s="28" t="n">
         <v>40448191</v>
       </c>
-      <c r="F122" s="19" t="n">
+      <c r="F122" s="31" t="n">
         <v>28821.0637</v>
       </c>
-      <c r="G122" s="16"/>
+      <c r="G122" s="22"/>
     </row>
     <row r="123">
-      <c r="B123" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C123" s="17" t="s">
+      <c r="B123" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D123" s="19" t="n">
+      <c r="D123" s="25" t="n">
         <v>72.396</v>
       </c>
-      <c r="E123" s="3" t="n">
+      <c r="E123" s="28" t="n">
         <v>20378239</v>
       </c>
-      <c r="F123" s="19" t="n">
+      <c r="F123" s="31" t="n">
         <v>3970.095407</v>
       </c>
-      <c r="G123" s="16"/>
+      <c r="G123" s="22"/>
     </row>
     <row r="124">
-      <c r="B124" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="19" t="n">
+      <c r="B124" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="25" t="n">
         <v>58.556</v>
       </c>
-      <c r="E124" s="3" t="n">
+      <c r="E124" s="28" t="n">
         <v>42292929</v>
       </c>
-      <c r="F124" s="19" t="n">
+      <c r="F124" s="31" t="n">
         <v>2602.394995</v>
       </c>
-      <c r="G124" s="16"/>
+      <c r="G124" s="22"/>
     </row>
     <row r="125">
-      <c r="B125" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="19" t="n">
+      <c r="B125" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="25" t="n">
         <v>39.613</v>
       </c>
-      <c r="E125" s="3" t="n">
+      <c r="E125" s="28" t="n">
         <v>1133066</v>
       </c>
-      <c r="F125" s="19" t="n">
+      <c r="F125" s="31" t="n">
         <v>4513.480643</v>
       </c>
-      <c r="G125" s="16"/>
+      <c r="G125" s="22"/>
     </row>
     <row r="126">
-      <c r="B126" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C126" s="17" t="s">
+      <c r="B126" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D126" s="19" t="n">
+      <c r="D126" s="25" t="n">
         <v>80.884</v>
       </c>
-      <c r="E126" s="3" t="n">
+      <c r="E126" s="28" t="n">
         <v>9031088</v>
       </c>
-      <c r="F126" s="19" t="n">
+      <c r="F126" s="31" t="n">
         <v>33859.74835</v>
       </c>
-      <c r="G126" s="16"/>
+      <c r="G126" s="22"/>
     </row>
     <row r="127">
-      <c r="B127" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C127" s="17" t="s">
+      <c r="B127" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C127" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D127" s="19" t="n">
+      <c r="D127" s="25" t="n">
         <v>81.701</v>
       </c>
-      <c r="E127" s="3" t="n">
+      <c r="E127" s="28" t="n">
         <v>7554661</v>
       </c>
-      <c r="F127" s="19" t="n">
+      <c r="F127" s="31" t="n">
         <v>37506.41907</v>
       </c>
-      <c r="G127" s="16"/>
+      <c r="G127" s="22"/>
     </row>
     <row r="128">
-      <c r="B128" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C128" s="17" t="s">
+      <c r="B128" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D128" s="19" t="n">
+      <c r="D128" s="25" t="n">
         <v>74.143</v>
       </c>
-      <c r="E128" s="3" t="n">
+      <c r="E128" s="28" t="n">
         <v>19314747</v>
       </c>
-      <c r="F128" s="19" t="n">
+      <c r="F128" s="31" t="n">
         <v>4184.548089</v>
       </c>
-      <c r="G128" s="16"/>
+      <c r="G128" s="22"/>
     </row>
     <row r="129">
-      <c r="B129" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C129" s="17" t="s">
+      <c r="B129" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D129" s="19" t="n">
+      <c r="D129" s="25" t="n">
         <v>78.4</v>
       </c>
-      <c r="E129" s="3" t="n">
+      <c r="E129" s="28" t="n">
         <v>23174294</v>
       </c>
-      <c r="F129" s="19" t="n">
+      <c r="F129" s="31" t="n">
         <v>28718.27684</v>
       </c>
-      <c r="G129" s="16"/>
+      <c r="G129" s="22"/>
     </row>
     <row r="130">
-      <c r="B130" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="19" t="n">
+      <c r="B130" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="25" t="n">
         <v>52.517</v>
       </c>
-      <c r="E130" s="3" t="n">
+      <c r="E130" s="28" t="n">
         <v>38139640</v>
       </c>
-      <c r="F130" s="19" t="n">
+      <c r="F130" s="31" t="n">
         <v>1107.482182</v>
       </c>
-      <c r="G130" s="16"/>
+      <c r="G130" s="22"/>
     </row>
     <row r="131">
-      <c r="B131" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C131" s="17" t="s">
+      <c r="B131" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C131" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="19" t="n">
+      <c r="D131" s="25" t="n">
         <v>70.616</v>
       </c>
-      <c r="E131" s="3" t="n">
+      <c r="E131" s="28" t="n">
         <v>65068149</v>
       </c>
-      <c r="F131" s="19" t="n">
+      <c r="F131" s="31" t="n">
         <v>7458.396327</v>
       </c>
-      <c r="G131" s="16"/>
+      <c r="G131" s="22"/>
     </row>
     <row r="132">
-      <c r="B132" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="19" t="n">
+      <c r="B132" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="25" t="n">
         <v>58.42</v>
       </c>
-      <c r="E132" s="3" t="n">
+      <c r="E132" s="28" t="n">
         <v>5701579</v>
       </c>
-      <c r="F132" s="19" t="n">
+      <c r="F132" s="31" t="n">
         <v>882.9699438</v>
       </c>
-      <c r="G132" s="16"/>
+      <c r="G132" s="22"/>
     </row>
     <row r="133">
-      <c r="B133" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C133" s="17" t="s">
+      <c r="B133" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="19" t="n">
+      <c r="D133" s="25" t="n">
         <v>69.819</v>
       </c>
-      <c r="E133" s="3" t="n">
+      <c r="E133" s="28" t="n">
         <v>1056608</v>
       </c>
-      <c r="F133" s="19" t="n">
+      <c r="F133" s="31" t="n">
         <v>18008.50924</v>
       </c>
-      <c r="G133" s="16"/>
+      <c r="G133" s="22"/>
     </row>
     <row r="134">
-      <c r="B134" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="19" t="n">
+      <c r="B134" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="25" t="n">
         <v>73.923</v>
       </c>
-      <c r="E134" s="3" t="n">
+      <c r="E134" s="28" t="n">
         <v>10276158</v>
       </c>
-      <c r="F134" s="19" t="n">
+      <c r="F134" s="31" t="n">
         <v>7092.923025</v>
       </c>
-      <c r="G134" s="16"/>
+      <c r="G134" s="22"/>
     </row>
     <row r="135">
-      <c r="B135" s="23" t="s">
+      <c r="B135" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D135" s="19" t="n">
+      <c r="D135" s="25" t="n">
         <v>71.777</v>
       </c>
-      <c r="E135" s="3" t="n">
+      <c r="E135" s="28" t="n">
         <v>71158647</v>
       </c>
-      <c r="F135" s="19" t="n">
+      <c r="F135" s="31" t="n">
         <v>8458.276384</v>
       </c>
-      <c r="G135" s="16"/>
+      <c r="G135" s="22"/>
     </row>
     <row r="136">
-      <c r="B136" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="19" t="n">
+      <c r="B136" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="25" t="n">
         <v>51.542</v>
       </c>
-      <c r="E136" s="3" t="n">
+      <c r="E136" s="28" t="n">
         <v>29170398</v>
       </c>
-      <c r="F136" s="19" t="n">
+      <c r="F136" s="31" t="n">
         <v>1056.380121</v>
       </c>
-      <c r="G136" s="16"/>
+      <c r="G136" s="22"/>
     </row>
     <row r="137">
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="19" t="n">
+      <c r="D137" s="25" t="n">
         <v>79.425</v>
       </c>
-      <c r="E137" s="3" t="n">
+      <c r="E137" s="28" t="n">
         <v>60776238</v>
       </c>
-      <c r="F137" s="19" t="n">
+      <c r="F137" s="31" t="n">
         <v>33203.26128</v>
       </c>
-      <c r="G137" s="16"/>
+      <c r="G137" s="22"/>
     </row>
     <row r="138">
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="19" t="n">
+      <c r="D138" s="25" t="n">
         <v>78.242</v>
       </c>
-      <c r="E138" s="3" t="n">
+      <c r="E138" s="28" t="n">
         <v>301139947</v>
       </c>
-      <c r="F138" s="19" t="n">
+      <c r="F138" s="31" t="n">
         <v>42951.65309</v>
       </c>
-      <c r="G138" s="16"/>
+      <c r="G138" s="22"/>
     </row>
     <row r="139">
-      <c r="B139" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C139" s="17" t="s">
+      <c r="B139" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="19" t="n">
+      <c r="D139" s="25" t="n">
         <v>76.384</v>
       </c>
-      <c r="E139" s="3" t="n">
+      <c r="E139" s="28" t="n">
         <v>3447496</v>
       </c>
-      <c r="F139" s="19" t="n">
+      <c r="F139" s="31" t="n">
         <v>10611.46299</v>
       </c>
-      <c r="G139" s="16"/>
+      <c r="G139" s="22"/>
     </row>
     <row r="140">
-      <c r="B140" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C140" s="17" t="s">
+      <c r="B140" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="19" t="n">
+      <c r="D140" s="25" t="n">
         <v>73.747</v>
       </c>
-      <c r="E140" s="3" t="n">
+      <c r="E140" s="28" t="n">
         <v>26084662</v>
       </c>
-      <c r="F140" s="19" t="n">
+      <c r="F140" s="31" t="n">
         <v>11415.80569</v>
       </c>
-      <c r="G140" s="16"/>
+      <c r="G140" s="22"/>
     </row>
     <row r="141">
-      <c r="B141" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C141" s="17" t="s">
+      <c r="B141" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C141" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D141" s="19" t="n">
+      <c r="D141" s="25" t="n">
         <v>74.249</v>
       </c>
-      <c r="E141" s="3" t="n">
+      <c r="E141" s="28" t="n">
         <v>85262356</v>
       </c>
-      <c r="F141" s="19" t="n">
+      <c r="F141" s="31" t="n">
         <v>2441.576404</v>
       </c>
-      <c r="G141" s="16"/>
+      <c r="G141" s="22"/>
     </row>
     <row r="142">
-      <c r="B142" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C142" s="17" t="s">
+      <c r="B142" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D142" s="19" t="n">
+      <c r="D142" s="25" t="n">
         <v>73.422</v>
       </c>
-      <c r="E142" s="3" t="n">
+      <c r="E142" s="28" t="n">
         <v>4018332</v>
       </c>
-      <c r="F142" s="19" t="n">
+      <c r="F142" s="31" t="n">
         <v>3025.349798</v>
       </c>
-      <c r="G142" s="16"/>
+      <c r="G142" s="22"/>
     </row>
     <row r="143">
-      <c r="B143" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C143" s="17" t="s">
+      <c r="B143" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C143" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D143" s="19" t="n">
+      <c r="D143" s="25" t="n">
         <v>62.698</v>
       </c>
-      <c r="E143" s="3" t="n">
+      <c r="E143" s="28" t="n">
         <v>22211743</v>
       </c>
-      <c r="F143" s="19" t="n">
+      <c r="F143" s="31" t="n">
         <v>2280.769906</v>
       </c>
-      <c r="G143" s="16"/>
+      <c r="G143" s="22"/>
     </row>
     <row r="144">
-      <c r="B144" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" s="19" t="n">
+      <c r="B144" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="25" t="n">
         <v>42.384</v>
       </c>
-      <c r="E144" s="3" t="n">
+      <c r="E144" s="28" t="n">
         <v>11746035</v>
       </c>
-      <c r="F144" s="19" t="n">
+      <c r="F144" s="31" t="n">
         <v>1271.211593</v>
       </c>
-      <c r="G144" s="16"/>
+      <c r="G144" s="22"/>
     </row>
     <row r="145">
-      <c r="B145" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="19" t="n">
+      <c r="B145" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="25" t="n">
         <v>43.487</v>
       </c>
-      <c r="E145" s="3" t="n">
+      <c r="E145" s="28" t="n">
         <v>12311143</v>
       </c>
-      <c r="F145" s="19" t="n">
+      <c r="F145" s="31" t="n">
         <v>469.7092981</v>
       </c>
-      <c r="G145" s="16"/>
+      <c r="G145" s="22"/>
     </row>
     <row r="146">
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
